--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi2_.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi2_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 4 - career\4.3.1 jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E724ED2E-787B-4E2A-B23E-FA1719CBD023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598A31F-1E7B-417A-85D3-267CDDAA0B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8B3BAC4-32ED-4ADB-A9E6-8E33E3ACC0BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8B3BAC4-32ED-4ADB-A9E6-8E33E3ACC0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4457,13 +4457,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E49C252-1198-47FA-B350-9D50E8D01E59}">
   <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="62.08984375" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" customWidth="1"/>
+    <col min="6" max="9" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
